--- a/Provvigioni_Agenti/bin/Debug/citta_regione/citta_acmei.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/citta_regione/citta_acmei.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuse\Desktop\Provvigioni_Agenti\Provvigioni_Agenti\bin\Debug\citta_regione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\source\repos\Provvigioni_Agenti\Provvigioni_Agenti\bin\Debug\citta_regione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63C6CC-749F-4EE0-8CD6-8769B610A080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41BB8E-58BA-475C-AA72-69E3D02862EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="0" activeTab="0" xr2:uid="{500AED77-5A11-4B8C-A0B0-F9EB8F99957D}"/>
+    <x:workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{500AED77-5A11-4B8C-A0B0-F9EB8F99957D}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="comuni" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,64 @@
     <x:t>PUGLIA</x:t>
   </x:si>
   <x:si>
-    <x:t/>
+    <x:t>CHIETI (CH)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L'AQUILA (AQ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PESCARA (PE)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TERAMO (TE)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATERA (MT)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POTENZA (PZ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASILICATA - PZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CATANZARO (CZ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COSENZA (CS)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CROTONE (KR)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGGIO DI CALABRIA (RC)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIBO VALENTIA (VV)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAMPOBASSO (CB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISERNIA (IS)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARI (BA)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARLETTA-ANDRIA-TRANI (BT)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRINDISI (BR)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOGGIA (FG)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LECCE (LE)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TARANTO (TA)</x:t>
   </x:si>
   <x:si>
     <x:t>VENETO</x:t>
@@ -102,9 +159,6 @@
   </x:si>
   <x:si>
     <x:t>CAMPANIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BASILICATA - PZ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -169,9 +223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -315,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,19 +522,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B6"/>
+  <x:dimension ref="A1:B24"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F18" sqref="F18"/>
+      <x:selection activeCell="B21" sqref="B21"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.285156" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="17.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="27.332031" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="17.332031" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -488,7 +542,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -496,7 +550,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -504,7 +558,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -512,7 +566,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -520,9 +574,156 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="s">
         <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -560,111 +761,111 @@
       <x:selection activeCell="O16" sqref="O16 A16 B16 C16 D16 E16 F16 G16 H16 I16 J16 K16 L16 M16 N16"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <x:row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <x:row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A18" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A20" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A21" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
